--- a/tests/assets/odk-example-form-2.xlsx
+++ b/tests/assets/odk-example-form-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Sites/holpa-platform/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8A341-3B98-ED42-AD97-AD5DFCC4BB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B9D2D-7D7E-034B-9743-5FD5A0F3812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="321" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16240" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -755,9 +755,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="156" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -909,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="245" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D2" s="16">
         <f ca="1">NOW()</f>
-        <v>45608.71835289352</v>
+        <v>45609.569312500003</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>

--- a/tests/assets/odk-example-form-2.xlsx
+++ b/tests/assets/odk-example-form-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Sites/holpa-platform/tests/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4B9D2D-7D7E-034B-9743-5FD5A0F3812C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D69E30-F4CF-B04E-9462-B47590D73CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16240" yWindow="-28300" windowWidth="51200" windowHeight="28300" tabRatio="321" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
